--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Christopher Roger Woakes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3221</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3226</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3229</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3436</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>27/01/2013</t>
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1530,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/12/2014</t>
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1568,7 +1629,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>10/12/2014</t>
@@ -1576,7 +1636,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1772,7 +1832,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1832,7 +1891,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1884,7 +1943,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1936,7 +1995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1988,7 +2047,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2040,7 +2099,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2092,7 +2151,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2144,7 +2203,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2196,7 +2255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2248,7 +2307,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2300,7 +2359,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2352,7 +2411,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2404,7 +2463,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2444,7 +2503,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -2452,7 +2510,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2492,7 +2550,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -2500,7 +2557,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2540,7 +2597,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -2548,7 +2604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2600,7 +2656,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2652,7 +2708,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2704,7 +2760,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2744,7 +2800,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -2752,7 +2807,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2792,7 +2847,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -2800,7 +2854,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2840,7 +2894,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -2848,7 +2901,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2900,7 +2953,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2940,7 +2993,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -2948,7 +3000,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3000,7 +3052,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3040,7 +3092,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -3048,7 +3099,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3100,7 +3151,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3152,7 +3203,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3204,7 +3255,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3256,7 +3307,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3308,7 +3359,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3360,7 +3411,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3412,7 +3463,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3464,7 +3515,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3516,7 +3567,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3568,7 +3619,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3620,7 +3671,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3660,7 +3711,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -3668,7 +3718,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3708,7 +3758,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -3716,7 +3765,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3756,7 +3805,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3764,7 +3812,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3816,7 +3864,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3856,7 +3904,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>27/09/2017</t>
@@ -3864,7 +3911,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3904,7 +3951,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -3912,7 +3958,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3964,7 +4010,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4016,7 +4062,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4068,7 +4114,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4120,7 +4166,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4160,7 +4206,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -4168,7 +4213,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4220,7 +4265,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4272,7 +4317,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4312,7 +4357,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -4320,7 +4364,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4360,7 +4404,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4368,7 +4411,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4420,7 +4463,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4460,7 +4503,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -4468,7 +4510,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4508,7 +4550,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4516,7 +4557,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4556,7 +4597,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4564,7 +4604,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4604,7 +4644,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4612,7 +4651,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4652,7 +4691,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>27/02/2019</t>
@@ -4660,7 +4698,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4712,7 +4750,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4752,7 +4790,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4760,7 +4797,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4800,7 +4837,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4808,7 +4844,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4848,7 +4884,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -4856,7 +4891,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4908,7 +4943,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4960,7 +4995,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5012,7 +5047,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5064,7 +5099,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5116,7 +5151,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5168,7 +5203,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5220,7 +5255,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5272,7 +5307,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5324,7 +5359,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5376,7 +5411,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5416,7 +5451,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -5424,7 +5458,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5476,7 +5510,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5528,7 +5562,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5568,7 +5602,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -5576,7 +5609,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5628,7 +5661,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5680,7 +5713,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5732,7 +5765,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5772,7 +5805,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -5780,7 +5812,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5820,7 +5852,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -5828,7 +5859,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5880,7 +5911,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5932,7 +5963,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5984,7 +6015,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6036,7 +6067,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6088,7 +6119,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6140,7 +6171,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6179,7 +6210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6201,7 +6232,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6238,7 +6269,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3221</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6275,7 +6306,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3226</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6312,7 +6343,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3229</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6349,7 +6380,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6386,7 +6417,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6423,7 +6454,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6460,7 +6491,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6497,7 +6528,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6534,7 +6565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6571,7 +6602,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6608,7 +6639,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6645,7 +6676,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6682,7 +6713,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6719,7 +6750,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6756,7 +6787,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6793,7 +6824,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6830,7 +6861,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6867,7 +6898,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6904,7 +6935,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6941,7 +6972,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6978,7 +7009,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7015,7 +7046,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7052,7 +7083,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7089,7 +7120,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7126,7 +7157,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7163,7 +7194,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7200,7 +7231,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7237,7 +7268,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7274,7 +7305,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7311,7 +7342,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7348,7 +7379,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7385,7 +7416,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7422,7 +7453,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7459,7 +7490,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7496,7 +7527,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7533,7 +7564,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7570,7 +7601,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7607,7 +7638,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7644,7 +7675,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7681,7 +7712,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7718,7 +7749,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7755,7 +7786,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7792,7 +7823,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7829,7 +7860,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7866,7 +7897,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7903,7 +7934,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7940,7 +7971,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7977,7 +8008,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8014,7 +8045,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8051,7 +8082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8088,7 +8119,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8125,7 +8156,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8162,7 +8193,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8199,7 +8230,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8236,7 +8267,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8273,7 +8304,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8310,7 +8341,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8347,7 +8378,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8384,7 +8415,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8421,7 +8452,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8458,7 +8489,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8495,7 +8526,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8532,7 +8563,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8569,7 +8600,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8606,7 +8637,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8643,7 +8674,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8680,7 +8711,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8717,7 +8748,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8754,7 +8785,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8791,7 +8822,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8828,7 +8859,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8865,7 +8896,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8902,7 +8933,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8939,7 +8970,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8976,7 +9007,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9013,7 +9044,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9050,7 +9081,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9087,7 +9118,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9124,7 +9155,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9161,7 +9192,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9198,7 +9229,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9235,7 +9266,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9272,7 +9303,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9309,7 +9340,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9346,7 +9377,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9383,7 +9414,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9420,7 +9451,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9457,7 +9488,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9494,7 +9525,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9531,7 +9562,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9568,7 +9599,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9605,7 +9636,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9642,7 +9673,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9679,7 +9710,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9716,7 +9747,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -9753,7 +9784,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9790,7 +9821,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9827,7 +9858,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9864,7 +9895,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9901,7 +9932,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -9938,7 +9969,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -9975,7 +10006,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10012,7 +10043,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10049,7 +10080,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10086,7 +10117,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10123,7 +10154,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10160,7 +10191,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10197,7 +10228,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10223,6 +10254,521 @@
       <c r="G109" t="inlineStr">
         <is>
           <t>1/27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11.76%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.26%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17.55%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.09%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17.35%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10314,15 +10315,470 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11.76%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.08%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>11.26%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17.55%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.09%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17.35%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10330,27 +10786,14 @@
           <t>4331</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.94%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10360,27 +10803,14 @@
           <t>4336</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -10390,27 +10820,14 @@
           <t>4342</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -10422,13 +10839,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -10436,15 +10846,14 @@
           <t>4354</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -10456,13 +10865,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10472,13 +10874,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10488,13 +10883,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10502,27 +10890,14 @@
           <t>4429</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10532,27 +10907,14 @@
           <t>4430</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.26%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -10562,27 +10924,14 @@
           <t>4431</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>7</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17.55%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -10592,15 +10941,14 @@
           <t>4469</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -10612,13 +10960,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10628,13 +10969,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10644,13 +10978,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10658,29 +10985,12 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.09%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10688,27 +10998,14 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10718,27 +11015,14 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -10748,27 +11032,14 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>17.35%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4657,7 +4656,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4803,7 +4802,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5615,7 +5614,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5865,7 +5864,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -10315,6 +10314,10 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10417,6 +10420,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10432,6 +10439,9 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10444,6 +10454,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10456,6 +10470,10 @@
           <t>4401</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10468,6 +10486,10 @@
           <t>4405</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10573,6 +10595,9 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>YES</t>
@@ -10585,6 +10610,10 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10597,6 +10626,10 @@
           <t>4663</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10609,6 +10642,10 @@
           <t>4666</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -10732,314 +10769,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3846.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -765,6 +764,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -916,6 +916,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>27/01/2013</t>
@@ -1015,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -1530,6 +1532,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/12/2014</t>
@@ -1629,6 +1632,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>10/12/2014</t>
@@ -1832,6 +1836,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -2503,6 +2508,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -2550,6 +2556,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -2597,6 +2604,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -2800,6 +2808,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -2847,6 +2856,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -2894,6 +2904,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -2993,6 +3004,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -3092,6 +3104,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -3711,6 +3724,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -3758,6 +3772,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -3805,6 +3820,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3904,6 +3920,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>27/09/2017</t>
@@ -3951,6 +3968,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -4206,6 +4224,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -4357,6 +4376,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -4404,6 +4424,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4503,6 +4524,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -4550,6 +4572,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4597,6 +4620,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4644,6 +4668,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4691,6 +4716,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>27/02/2019</t>
@@ -4790,6 +4816,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4837,6 +4864,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4884,6 +4912,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -5451,6 +5480,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -5602,6 +5632,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -5805,6 +5836,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -5852,6 +5884,7 @@
           <t>106</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -10260,519 +10293,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.94%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.08%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>11.26%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>17.55%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.09%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>17.35%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>